--- a/medicine/Enfance/L'Ordinateur_qui_semait_le_désordre/L'Ordinateur_qui_semait_le_désordre.xlsx
+++ b/medicine/Enfance/L'Ordinateur_qui_semait_le_désordre/L'Ordinateur_qui_semait_le_désordre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Ordinateur_qui_semait_le_d%C3%A9sordre</t>
+          <t>L'Ordinateur_qui_semait_le_désordre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Ordinateur qui semait le désordre est le dix-huitième roman de la série Les Conquérants de l'impossible écrite par Philippe Ébly. Ce roman est paru pour la première fois en 1986 chez Hachette dans la collection Bibliothèque verte. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Ordinateur_qui_semait_le_d%C3%A9sordre</t>
+          <t>L'Ordinateur_qui_semait_le_désordre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur Auvernaux propose aux Conquérants de l’impossible un nouveau défi : entrer dans un ordinateur où Paris a été reconstitué dans son intégralité ! Cette simulation a pour but d’étudier les effets d’une découverte sans danger pour le monde réel. Mais le péril pourrait venir de l’intérieur même de l’ordinateur… car dans ce Paris artificiel, tout commence à s’altérer : une poussière grise tombe dans les rues, des gens disparaissent, de mystérieux gardes font régner la terreur. Et les Conquérants, bloqués dans la machine, risquent de subir ce qui arrive à ceux qui sèment le désordre : l’effacement pur et simple...
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Ordinateur_qui_semait_le_d%C3%A9sordre</t>
+          <t>L'Ordinateur_qui_semait_le_désordre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1986 : Hachette, coll. : Bibliothèque verte, cartonné (série au dos hachuré), texte original. Illustrations de (inconnu). 157 p.  (ISBN 2-01-012305-0)
 1988 : Hachette, Bibliothèque verte, no 100, poche souple, texte original. Illustrations de (inconnu). 155 p.  (ISBN 2-01-013548-2)
